--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19485" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,8 @@
 4 被普通攻击命中的时候
 5 造成伤害时
 6 受到伤害时
-7 和单位碰撞时</t>
+7 和单位碰撞时
+8 当前生命值改变的时候</t>
         </r>
       </text>
     </comment>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -198,6 +199,9 @@
   </si>
   <si>
     <t>触发时候的效果资源id（自身）</t>
+  </si>
+  <si>
+    <t>残血爆发（被动）lv1</t>
   </si>
   <si>
     <t>普通击中时增加 buff 3层有伤害</t>
@@ -1227,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1239,7 +1243,7 @@
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="9" width="21.625" customWidth="1"/>
     <col min="10" max="10" width="28.875" customWidth="1"/>
     <col min="11" max="11" width="21.625" customWidth="1"/>
@@ -1360,69 +1364,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="2:11">
       <c r="B4">
-        <v>18001001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
+        <v>18000101</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>18001002</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>500</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="3:11">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -1433,69 +1400,49 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>18001003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
+    <row r="7" spans="3:11">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:11">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>18001004</v>
+        <v>18100101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>1000</v>
       </c>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>4001050</v>
+        <v>14100101</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="3:11">
+    <row r="9" spans="3:11">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
@@ -1506,36 +1453,16 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>18001010</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6">
-        <v>7</v>
-      </c>
+    <row r="10" spans="3:11">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4001004</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="3:11">
       <c r="C11" s="2"/>
@@ -1548,36 +1475,16 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>18001020</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
+    <row r="12" spans="3:11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>14001008</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="2"/>
@@ -1590,21 +1497,21 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" customFormat="1" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>18001030</v>
+        <v>18001001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1614,56 +1521,67 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>13001010</v>
+        <v>14001007</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>18001040</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="6">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>18001002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6">
         <v>3</v>
       </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>900</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4002022</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="3:11">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>18001041</v>
+        <v>18001003</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
@@ -1676,10 +1594,229 @@
         <v>3</v>
       </c>
       <c r="I17" s="2">
-        <v>14001031</v>
+        <v>13001006</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:11">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>18001004</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4001050</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="3:11">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>18001010</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>18001020</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>18001030</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>18001040</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>18001041</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -59,7 +59,8 @@
 5 造成伤害时
 6 受到伤害时
 7 和单位碰撞时
-8 当前生命值改变的时候</t>
+8 当前生命值改变的时候
+9 死亡之前</t>
         </r>
       </text>
     </comment>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -150,6 +151,9 @@
     <t>afterTriggerRemoveEffectList</t>
   </si>
   <si>
+    <t>maxTriggerCount</t>
+  </si>
+  <si>
     <t>triggerCD</t>
   </si>
   <si>
@@ -195,6 +199,9 @@
     <t>触发后移除的效果列表</t>
   </si>
   <si>
+    <t>最大触发次数</t>
+  </si>
+  <si>
     <t>触发CD(毫秒)</t>
   </si>
   <si>
@@ -202,6 +209,21 @@
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
+  </si>
+  <si>
+    <t>残血爆发（被动）lv2</t>
+  </si>
+  <si>
+    <t>残血爆发（被动）lv3</t>
+  </si>
+  <si>
+    <t>残血爆发（被动）lv4</t>
+  </si>
+  <si>
+    <t>残血爆发（被动）lv5</t>
+  </si>
+  <si>
+    <t>丝血无敌（被动）lv1</t>
   </si>
   <si>
     <t>普通击中时增加 buff 3层有伤害</t>
@@ -400,12 +422,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1231,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1245,12 +1267,12 @@
     <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="28.875" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="10" max="11" width="28.875" customWidth="1"/>
+    <col min="12" max="12" width="21.625" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,84 +1309,93 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>18000101</v>
       </c>
@@ -1377,8 +1408,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="3:11">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
@@ -1388,8 +1420,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="3:11">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="3:12">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -1399,19 +1432,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:11">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1419,10 +1454,10 @@
         <v>18100101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6">
         <v>8</v>
@@ -1441,52 +1476,147 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>18100102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>18100103</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>18100104</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>18100105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="3:11">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
@@ -1496,70 +1626,55 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>18001001</v>
+        <v>18100201</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>1000</v>
       </c>
       <c r="H14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>14001007</v>
+        <v>14100201</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>18001002</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
+      <c r="L14" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>900</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="3:11">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="3:12">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
@@ -1569,70 +1684,33 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:11">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>18001003</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:11">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>18001004</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="6">
-        <v>7</v>
-      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4001050</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="3:11">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
@@ -1642,39 +1720,21 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:11">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>18001010</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="6">
-        <v>7</v>
-      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4001004</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6"/>
@@ -1684,39 +1744,21 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>18001020</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>14001008</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6"/>
@@ -1726,22 +1768,23 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:11">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>18001030</v>
+        <v>18001001</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1751,56 +1794,74 @@
         <v>3</v>
       </c>
       <c r="I24" s="2">
-        <v>13001010</v>
+        <v>14001007</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:11">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>18001040</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>18001002</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E25" s="6">
         <v>3</v>
       </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>900</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4002022</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="3:12">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:11">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:12">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>18001041</v>
+        <v>18001003</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -1813,10 +1874,253 @@
         <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>14001031</v>
+        <v>13001006</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:12">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>18001004</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="6">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4001050</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="3:12">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:12">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>18001010</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:12">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>18001020</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:12">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>18001030</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:12">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>18001040</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:12">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>18001041</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -422,12 +422,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1255,8 +1255,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,9 @@
 6 受到伤害时
 7 和单位碰撞时
 8 当前生命值改变的时候
-9 死亡之前</t>
+9 死亡之前
+10 闪避普通攻击成功时
+11 闪避（销毁）投掷物成功时</t>
         </r>
       </text>
     </comment>
@@ -119,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -224,6 +226,9 @@
   </si>
   <si>
     <t>丝血无敌（被动）lv1</t>
+  </si>
+  <si>
+    <t>躲避投掷物减少层数lv1</t>
   </si>
   <si>
     <t>普通击中时增加 buff 3层有伤害</t>
@@ -1255,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1674,17 +1679,39 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+    <row r="16" customFormat="1" spans="1:12">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>18100301</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6">
+        <v>11</v>
+      </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>27000101</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>7000</v>
+      </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" s="2"/>
@@ -1778,10 +1805,10 @@
         <v>18001001</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -1812,10 +1839,10 @@
         <v>18001002</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -1858,10 +1885,10 @@
         <v>18001003</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -1892,10 +1919,10 @@
         <v>18001004</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="6">
         <v>7</v>
@@ -1938,10 +1965,10 @@
         <v>18001010</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="6">
         <v>7</v>
@@ -1984,10 +2011,10 @@
         <v>18001020</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2030,10 +2057,10 @@
         <v>18001030</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -2064,10 +2091,10 @@
         <v>18001040</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6">
         <v>3</v>
@@ -2098,10 +2125,10 @@
         <v>18001041</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="15060" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1260,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:12">

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15060" windowHeight="6945"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>触发时候的效果资源id（自身）</t>
+  </si>
+  <si>
+    <t>唐依 普通击中时增加移速buff</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -1258,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1400,10 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4">
-        <v>18000101</v>
-      </c>
+    <row r="4" spans="3:12">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -1427,22 +1427,44 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>18003101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>14003101</v>
+      </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="3:12">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1451,175 +1473,65 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>18100101</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6">
-        <v>8</v>
-      </c>
+    <row r="8" spans="3:12">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>18100102</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8</v>
-      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>18100103</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8</v>
-      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>18100104</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8</v>
-      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>18100105</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8</v>
-      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="2"/>
@@ -1633,39 +1545,17 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" customFormat="1" spans="1:12">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>18100201</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6">
-        <v>9</v>
-      </c>
+    <row r="14" spans="3:12">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>14100201</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>7000</v>
-      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="2"/>
@@ -1679,44 +1569,22 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" customFormat="1" spans="1:12">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>18100301</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6">
-        <v>11</v>
-      </c>
+    <row r="16" spans="3:12">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>27000101</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1725,65 +1593,160 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>18100101</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>18100102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>18100103</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>18100104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>18100105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="2"/>
@@ -1797,155 +1760,105 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
+    <row r="24" customFormat="1" spans="2:12">
       <c r="B24">
-        <v>18001001</v>
+        <v>18100201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>1000</v>
       </c>
       <c r="H24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>14001007</v>
+        <v>14100201</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>18001002</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>900</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="3:12">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:12">
+      <c r="B26">
+        <v>18100301</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6">
+        <v>11</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>27000101</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:12">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>18001003</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3</v>
-      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>3</v>
-      </c>
-      <c r="I27" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:12">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>18001004</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="6">
-        <v>7</v>
-      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4001050</v>
-      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="3:12">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="3:12">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6"/>
@@ -1957,39 +1870,17 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" customFormat="1" spans="1:12">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>18001010</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="6">
-        <v>7</v>
-      </c>
+    <row r="30" spans="3:12">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2">
-        <v>4001004</v>
-      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="2"/>
@@ -2003,39 +1894,17 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" customFormat="1" spans="1:12">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>18001020</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="6">
-        <v>3</v>
-      </c>
+    <row r="32" spans="3:12">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>14001008</v>
-      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="2"/>
@@ -2049,21 +1918,18 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" customFormat="1" spans="1:12">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
+    <row r="34" spans="2:12">
       <c r="B34">
-        <v>18001030</v>
+        <v>18001001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E34" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -2073,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="2">
-        <v>13001010</v>
+        <v>14001007</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
@@ -2083,52 +1949,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:12">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>18001040</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="6">
+    <row r="35" spans="2:12">
+      <c r="B35">
+        <v>18001002</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6">
         <v>3</v>
       </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>900</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4002022</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="3:12">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:12">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="2:12">
       <c r="B37">
-        <v>18001041</v>
+        <v>18001003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2141,13 +2013,235 @@
         <v>3</v>
       </c>
       <c r="I37" s="2">
-        <v>14001031</v>
+        <v>13001006</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
         <v>0</v>
       </c>
       <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="2:12">
+      <c r="B38">
+        <v>18001004</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="6">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4001050</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="3:12">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" customFormat="1" spans="2:12">
+      <c r="B40">
+        <v>18001010</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="6">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" spans="2:12">
+      <c r="B42">
+        <v>18001020</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" spans="2:12">
+      <c r="B44">
+        <v>18001030</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="2:12">
+      <c r="B46">
+        <v>18001040</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="2:12">
+      <c r="B47">
+        <v>18001041</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -121,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -211,6 +198,9 @@
   </si>
   <si>
     <t>唐依 普通击中时增加移速buff</t>
+  </si>
+  <si>
+    <t>唐依 q技能位移之后的穿刺攻击</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -270,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -430,12 +420,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1264,10 +1254,10 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -1461,17 +1451,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
+    <row r="7" customFormat="1" spans="1:12">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>18003201</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3003201</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="3:12">
       <c r="C8" s="2"/>
@@ -1598,10 +1610,10 @@
         <v>18100101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -1629,10 +1641,10 @@
         <v>18100102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="6">
         <v>8</v>
@@ -1660,10 +1672,10 @@
         <v>18100103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="6">
         <v>8</v>
@@ -1691,10 +1703,10 @@
         <v>18100104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6">
         <v>8</v>
@@ -1722,10 +1734,10 @@
         <v>18100105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="6">
         <v>8</v>
@@ -1765,10 +1777,10 @@
         <v>18100201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="6">
         <v>9</v>
@@ -1808,10 +1820,10 @@
         <v>18100301</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="6">
         <v>11</v>
@@ -1923,10 +1935,10 @@
         <v>18001001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -1954,10 +1966,10 @@
         <v>18001002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -1997,10 +2009,10 @@
         <v>18001003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2028,10 +2040,10 @@
         <v>18001004</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="6">
         <v>7</v>
@@ -2071,10 +2083,10 @@
         <v>18001010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="6">
         <v>7</v>
@@ -2114,10 +2126,10 @@
         <v>18001020</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2157,10 +2169,10 @@
         <v>18001030</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2188,10 +2200,10 @@
         <v>18001040</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2219,10 +2231,10 @@
         <v>18001041</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2262,7 +2274,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2279,7 +2291,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14540"/>
+    <workbookView windowWidth="14505" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +214,9 @@
   </si>
   <si>
     <t>唐依 q技能位移之后的穿刺攻击</t>
+  </si>
+  <si>
+    <t>唐依 大招群攻被动</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -260,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -420,12 +436,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1254,10 +1270,10 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -1477,25 +1493,51 @@
       <c r="I7" s="2">
         <v>3003201</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>14003201</v>
+      </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
+    <row r="8" customFormat="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>18003301</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13003101</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="2"/>
@@ -1610,10 +1652,10 @@
         <v>18100101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -1641,10 +1683,10 @@
         <v>18100102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6">
         <v>8</v>
@@ -1672,10 +1714,10 @@
         <v>18100103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6">
         <v>8</v>
@@ -1703,10 +1745,10 @@
         <v>18100104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6">
         <v>8</v>
@@ -1734,10 +1776,10 @@
         <v>18100105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6">
         <v>8</v>
@@ -1777,10 +1819,10 @@
         <v>18100201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="6">
         <v>9</v>
@@ -1820,10 +1862,10 @@
         <v>18100301</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="6">
         <v>11</v>
@@ -1935,10 +1977,10 @@
         <v>18001001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -1966,10 +2008,10 @@
         <v>18001002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2009,10 +2051,10 @@
         <v>18001003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2040,10 +2082,10 @@
         <v>18001004</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="6">
         <v>7</v>
@@ -2083,10 +2125,10 @@
         <v>18001010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="6">
         <v>7</v>
@@ -2126,10 +2168,10 @@
         <v>18001020</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2169,10 +2211,10 @@
         <v>18001030</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2200,10 +2242,10 @@
         <v>18001040</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2231,10 +2273,10 @@
         <v>18001041</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2274,7 +2316,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2291,7 +2333,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14505" windowHeight="10890"/>
+    <workbookView windowWidth="18855" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>唐依 大招群攻被动</t>
+  </si>
+  <si>
+    <t>夜魂q 被攻击打伤害的被动</t>
+  </si>
+  <si>
+    <t>夜魂q被动</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -1270,7 +1276,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1563,17 +1569,39 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+    <row r="11" customFormat="1" spans="1:12">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>18004101</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14004201</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" s="2"/>
@@ -1652,10 +1680,10 @@
         <v>18100101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -1683,10 +1711,10 @@
         <v>18100102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6">
         <v>8</v>
@@ -1714,10 +1742,10 @@
         <v>18100103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6">
         <v>8</v>
@@ -1745,10 +1773,10 @@
         <v>18100104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6">
         <v>8</v>
@@ -1776,10 +1804,10 @@
         <v>18100105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="6">
         <v>8</v>
@@ -1819,10 +1847,10 @@
         <v>18100201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6">
         <v>9</v>
@@ -1862,10 +1890,10 @@
         <v>18100301</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="6">
         <v>11</v>
@@ -1977,10 +2005,10 @@
         <v>18001001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2008,10 +2036,10 @@
         <v>18001002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2051,10 +2079,10 @@
         <v>18001003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2082,10 +2110,10 @@
         <v>18001004</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="6">
         <v>7</v>
@@ -2125,10 +2153,10 @@
         <v>18001010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="6">
         <v>7</v>
@@ -2168,10 +2196,10 @@
         <v>18001020</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2211,10 +2239,10 @@
         <v>18001030</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2242,10 +2270,10 @@
         <v>18001040</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2273,10 +2301,10 @@
         <v>18001041</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="10890"/>
+    <workbookView windowWidth="15735" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1275,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="30240" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -121,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -223,6 +210,9 @@
   </si>
   <si>
     <t>夜魂q被动</t>
+  </si>
+  <si>
+    <t>夜魂q 攻击附带护甲伤害</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -282,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -442,12 +432,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1275,11 +1265,11 @@
   <sheetPr/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -1603,17 +1593,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
+    <row r="12" customFormat="1" spans="1:12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>18004201</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4004301</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="2"/>
@@ -1680,10 +1692,10 @@
         <v>18100101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -1711,10 +1723,10 @@
         <v>18100102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="6">
         <v>8</v>
@@ -1742,10 +1754,10 @@
         <v>18100103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6">
         <v>8</v>
@@ -1773,10 +1785,10 @@
         <v>18100104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6">
         <v>8</v>
@@ -1804,10 +1816,10 @@
         <v>18100105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6">
         <v>8</v>
@@ -1847,10 +1859,10 @@
         <v>18100201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="6">
         <v>9</v>
@@ -1890,10 +1902,10 @@
         <v>18100301</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="6">
         <v>11</v>
@@ -2005,10 +2017,10 @@
         <v>18001001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2036,10 +2048,10 @@
         <v>18001002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2079,10 +2091,10 @@
         <v>18001003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2110,10 +2122,10 @@
         <v>18001004</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="6">
         <v>7</v>
@@ -2153,10 +2165,10 @@
         <v>18001010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="6">
         <v>7</v>
@@ -2196,10 +2208,10 @@
         <v>18001020</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2239,10 +2251,10 @@
         <v>18001030</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2270,10 +2282,10 @@
         <v>18001040</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2301,10 +2313,10 @@
         <v>18001041</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2344,7 +2356,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2361,7 +2373,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="17400"/>
+    <workbookView windowWidth="26640" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>夜魂q 攻击附带护甲伤害</t>
+  </si>
+  <si>
+    <t>萧玉q被动攻击治疗</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1651,17 +1654,39 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
+    <row r="15" customFormat="1" spans="1:12">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>18005101</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4005401</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="2"/>
@@ -1692,10 +1717,10 @@
         <v>18100101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -1723,10 +1748,10 @@
         <v>18100102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="6">
         <v>8</v>
@@ -1754,10 +1779,10 @@
         <v>18100103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6">
         <v>8</v>
@@ -1785,10 +1810,10 @@
         <v>18100104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6">
         <v>8</v>
@@ -1816,10 +1841,10 @@
         <v>18100105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="6">
         <v>8</v>
@@ -1859,10 +1884,10 @@
         <v>18100201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="6">
         <v>9</v>
@@ -1902,10 +1927,10 @@
         <v>18100301</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="6">
         <v>11</v>
@@ -2017,10 +2042,10 @@
         <v>18001001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2048,10 +2073,10 @@
         <v>18001002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2091,10 +2116,10 @@
         <v>18001003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2122,10 +2147,10 @@
         <v>18001004</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="6">
         <v>7</v>
@@ -2165,10 +2190,10 @@
         <v>18001010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="6">
         <v>7</v>
@@ -2208,10 +2233,10 @@
         <v>18001020</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2251,10 +2276,10 @@
         <v>18001030</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -2282,10 +2307,10 @@
         <v>18001040</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2313,10 +2338,10 @@
         <v>18001041</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="17400"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -275,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1269,10 +1282,10 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -2381,7 +2394,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2398,7 +2411,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -448,12 +448,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1281,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="2">
-        <v>4005401</v>
+        <v>13005101</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>萧玉q被动攻击治疗</t>
+  </si>
+  <si>
+    <t>承灵大招召唤兽的群攻被动</t>
+  </si>
+  <si>
+    <t>承灵大招召唤兽的攻速叠加增加被动</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -1279,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1725,123 +1731,59 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18">
-        <v>18100101</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="3:12">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:12">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>18506101</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19">
-        <v>18100102</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20">
-        <v>18100103</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21">
-        <v>18100104</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>1000</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>13501101</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
@@ -1849,18 +1791,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" customFormat="1" spans="1:12">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
       <c r="B22">
-        <v>18100105</v>
+        <v>18506201</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E22" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1870,9 +1815,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>14501101</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
@@ -1883,7 +1830,7 @@
     <row r="23" spans="3:12">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1892,41 +1839,22 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" customFormat="1" spans="2:12">
-      <c r="B24">
-        <v>18100201</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9</v>
-      </c>
+    <row r="24" spans="3:12">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>14100201</v>
-      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>7000</v>
-      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1935,41 +1863,22 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" customFormat="1" spans="2:12">
-      <c r="B26">
-        <v>18100301</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6">
-        <v>11</v>
-      </c>
+    <row r="26" spans="3:12">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>27000101</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1978,65 +1887,160 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
+    <row r="28" spans="2:12">
+      <c r="B28">
+        <v>18100101</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="6">
+        <v>8</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29">
+        <v>18100102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6">
+        <v>8</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30">
+        <v>18100103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8</v>
+      </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="G30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31">
+        <v>18100104</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="6">
+        <v>8</v>
+      </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32">
+        <v>18100105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="2"/>
@@ -2050,143 +2054,105 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" customFormat="1" spans="2:12">
       <c r="B34">
-        <v>18001001</v>
+        <v>18100201</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
         <v>1000</v>
       </c>
       <c r="H34" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>14001007</v>
+        <v>14100201</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35">
-        <v>18001002</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="6">
-        <v>3</v>
-      </c>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <v>900</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="3:12">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" customFormat="1" spans="2:12">
+      <c r="B36">
+        <v>18100301</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="6">
+        <v>11</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="G36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>27000101</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" customFormat="1" spans="2:12">
-      <c r="B37">
-        <v>18001003</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="6">
-        <v>3</v>
-      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="2">
-        <v>3</v>
-      </c>
-      <c r="I37" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="2:12">
-      <c r="B38">
-        <v>18001004</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="6">
-        <v>7</v>
-      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H38" s="2">
-        <v>5</v>
-      </c>
-      <c r="I38" s="2">
-        <v>4001050</v>
-      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="3:12">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="6"/>
@@ -2198,36 +2164,17 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" customFormat="1" spans="2:12">
-      <c r="B40">
-        <v>18001010</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="6">
-        <v>7</v>
-      </c>
+    <row r="40" spans="3:12">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H40" s="2">
-        <v>5</v>
-      </c>
-      <c r="I40" s="2">
-        <v>4001004</v>
-      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="2"/>
@@ -2241,36 +2188,17 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" customFormat="1" spans="2:12">
-      <c r="B42">
-        <v>18001020</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="6">
-        <v>3</v>
-      </c>
+    <row r="42" spans="3:12">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>14001008</v>
-      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="2"/>
@@ -2284,18 +2212,18 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" customFormat="1" spans="2:12">
+    <row r="44" spans="2:12">
       <c r="B44">
-        <v>18001030</v>
+        <v>18001001</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2305,7 +2233,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="2">
-        <v>13001010</v>
+        <v>14001007</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
@@ -2315,46 +2243,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="2:12">
-      <c r="B46">
-        <v>18001040</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="6">
+    <row r="45" spans="2:12">
+      <c r="B45">
+        <v>18001002</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="6">
         <v>3</v>
       </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>900</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>4002022</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="3:12">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="1" spans="2:12">
       <c r="B47">
-        <v>18001041</v>
+        <v>18001003</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2367,13 +2307,235 @@
         <v>3</v>
       </c>
       <c r="I47" s="2">
-        <v>14001031</v>
+        <v>13001006</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="2:12">
+      <c r="B48">
+        <v>18001004</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="6">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>4001050</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="3:12">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="2:12">
+      <c r="B50">
+        <v>18001010</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="6">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" spans="2:12">
+      <c r="B52">
+        <v>18001020</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="6">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" customFormat="1" spans="2:12">
+      <c r="B54">
+        <v>18001030</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="2:12">
+      <c r="B56">
+        <v>18001040</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="2:12">
+      <c r="B57">
+        <v>18001041</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="6">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,9 @@
 8 当前生命值改变的时候
 9 死亡之前
 10 闪避普通攻击成功时
-11 闪避（销毁）投掷物成功时</t>
+11 闪避（销毁）投掷物成功时
+30 召唤兽造成伤害时
+31 召唤兽收到伤害时</t>
         </r>
       </text>
     </comment>
@@ -107,12 +109,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 触发的单位(自身)
+0 触发的单位(上下文传来的单位)
 1 正在普通攻击的单位
 2 正在释放技能的单位
 3 被普通攻击命中的单位 / 将要被普通攻击的单位
 4 被技能效果命中的单位
-5 碰撞的单位</t>
+5 碰撞的单位
+6 受到伤害的单位</t>
         </r>
       </text>
     </comment>
@@ -121,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +232,15 @@
   </si>
   <si>
     <t>萧玉q被动攻击治疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">承灵 q 被动 召唤兽造成伤害 自己回血 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">承灵 q 被动 自己造成伤害 目标周围召唤兽回血 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">承灵 q 被动 自己造成伤害 自己周围召唤兽回血 </t>
   </si>
   <si>
     <t>承灵大招召唤兽的群攻被动</t>
@@ -1287,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1719,17 +1731,73 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="17" customFormat="1" spans="1:12">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>18006101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4006201</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:12">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>18006201</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>13006101</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="2"/>
@@ -1760,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>18506101</v>
+        <v>18501101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1796,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>18506201</v>
+        <v>18502101</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
@@ -1892,10 +1960,10 @@
         <v>18100101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" s="6">
         <v>8</v>
@@ -1923,10 +1991,10 @@
         <v>18100102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E29" s="6">
         <v>8</v>
@@ -1954,10 +2022,10 @@
         <v>18100103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6">
         <v>8</v>
@@ -1985,10 +2053,10 @@
         <v>18100104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E31" s="6">
         <v>8</v>
@@ -2016,10 +2084,10 @@
         <v>18100105</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E32" s="6">
         <v>8</v>
@@ -2059,10 +2127,10 @@
         <v>18100201</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" s="6">
         <v>9</v>
@@ -2102,10 +2170,10 @@
         <v>18100301</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E36" s="6">
         <v>11</v>
@@ -2217,10 +2285,10 @@
         <v>18001001</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -2248,10 +2316,10 @@
         <v>18001002</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
@@ -2291,10 +2359,10 @@
         <v>18001003</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2322,10 +2390,10 @@
         <v>18001004</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6">
         <v>7</v>
@@ -2365,10 +2433,10 @@
         <v>18001010</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E50" s="6">
         <v>7</v>
@@ -2408,10 +2476,10 @@
         <v>18001020</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -2451,10 +2519,10 @@
         <v>18001030</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -2482,10 +2550,10 @@
         <v>18001040</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
@@ -2513,10 +2581,10 @@
         <v>18001041</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E57" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15750" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1299,8 +1299,12 @@
   <sheetPr/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="D14" activePane="bottomLeft"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1919,10 +1923,10 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" customFormat="1" spans="3:12">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,7 @@
 9 死亡之前
 10 闪避普通攻击成功时
 11 闪避（销毁）投掷物成功时
+12 躲避伤害成功时
 30 召唤兽造成伤害时
 31 召唤兽收到伤害时</t>
         </r>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -247,6 +248,9 @@
   </si>
   <si>
     <t>承灵大招召唤兽的攻速叠加增加被动</t>
+  </si>
+  <si>
+    <t>随机技能 躲避伤害减少层数lv1</t>
   </si>
   <si>
     <t>残血爆发（被动）lv1</t>
@@ -1300,11 +1304,11 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="D14" activePane="bottomLeft"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="H13" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1923,17 +1927,39 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" customFormat="1" spans="3:12">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
+    <row r="25" customFormat="1" spans="1:12">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>18801101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>27801101</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="2"/>
@@ -1964,10 +1990,10 @@
         <v>18100101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6">
         <v>8</v>
@@ -1995,10 +2021,10 @@
         <v>18100102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6">
         <v>8</v>
@@ -2026,10 +2052,10 @@
         <v>18100103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="6">
         <v>8</v>
@@ -2057,10 +2083,10 @@
         <v>18100104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="6">
         <v>8</v>
@@ -2088,10 +2114,10 @@
         <v>18100105</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="6">
         <v>8</v>
@@ -2131,10 +2157,10 @@
         <v>18100201</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="6">
         <v>9</v>
@@ -2174,10 +2200,10 @@
         <v>18100301</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="6">
         <v>11</v>
@@ -2289,10 +2315,10 @@
         <v>18001001</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -2320,10 +2346,10 @@
         <v>18001002</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
@@ -2363,10 +2389,10 @@
         <v>18001003</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2394,10 +2420,10 @@
         <v>18001004</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E48" s="6">
         <v>7</v>
@@ -2437,10 +2463,10 @@
         <v>18001010</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E50" s="6">
         <v>7</v>
@@ -2480,10 +2506,10 @@
         <v>18001020</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -2523,10 +2549,10 @@
         <v>18001030</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -2554,10 +2580,10 @@
         <v>18001040</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
@@ -2585,10 +2611,10 @@
         <v>18001041</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E57" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15780" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 触发的单位(上下文传来的单位)
-1 正在普通攻击的单位
-2 正在释放技能的单位
-3 被普通攻击命中的单位 / 将要被普通攻击的单位
-4 被技能效果命中的单位
-5 碰撞的单位
-6 受到伤害的单位</t>
+0 触发单位（挂有这个被动的单位 也就是自身）
+1 相对单位（另一个单位，例如：攻击的单位：自己时攻击单位，那么就是指被攻击的单位）
+2 技能释放者（这个被动技能是谁释放并且挂上的，就是指这个单位
+</t>
         </r>
       </text>
     </comment>
@@ -125,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -253,7 +250,10 @@
     <t>随机技能 躲避伤害减少层数lv1</t>
   </si>
   <si>
-    <t>残血爆发（被动）lv1</t>
+    <t>随机技能 反弹伤害 lv1</t>
+  </si>
+  <si>
+    <t>自爆人自爆被动技能 lv1</t>
   </si>
   <si>
     <t>残血爆发（被动）lv2</t>
@@ -1301,14 +1301,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="H13" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="G10" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,7 +1492,7 @@
         <v>1000</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>14003101</v>
@@ -1526,7 +1526,7 @@
         <v>1000</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>3003201</v>
@@ -1562,7 +1562,7 @@
         <v>1000</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>13003101</v>
@@ -1656,7 +1656,7 @@
         <v>1000</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>4004301</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>13005101</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="H21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
         <v>13501101</v>
@@ -1961,184 +1961,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+    <row r="26" customFormat="1" spans="1:12">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>18801201</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4801201</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>18801301</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="6">
+        <v>9</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>13801101</v>
+      </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28">
-        <v>18100101</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="6">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29">
-        <v>18100102</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="6">
-        <v>8</v>
-      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30">
-        <v>18100103</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6">
-        <v>8</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31">
-        <v>18100104</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="6">
-        <v>8</v>
-      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32">
-        <v>18100105</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="6">
-        <v>8</v>
-      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="2"/>
@@ -2152,61 +2089,61 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" customFormat="1" spans="2:12">
-      <c r="B34">
-        <v>18100201</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="6">
-        <v>9</v>
-      </c>
+    <row r="34" spans="3:12">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35">
+        <v>18100102</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="6">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
         <v>1000</v>
       </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>14100201</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" customFormat="1" spans="2:12">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36">
-        <v>18100301</v>
+        <v>18100103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -2216,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>27000101</v>
+        <v>14100101</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
@@ -2226,29 +2163,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
+    <row r="37" spans="2:12">
+      <c r="B37">
+        <v>18100104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8</v>
+      </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="G37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38">
+        <v>18100105</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8</v>
+      </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="G38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="2"/>
@@ -2262,17 +2237,36 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
+    <row r="40" customFormat="1" spans="2:12">
+      <c r="B40">
+        <v>18100201</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="6">
+        <v>9</v>
+      </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="G40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>14100201</v>
+      </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>7000</v>
+      </c>
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="2"/>
@@ -2286,17 +2280,36 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:12">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
+    <row r="42" customFormat="1" spans="2:12">
+      <c r="B42">
+        <v>18100301</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="6">
+        <v>11</v>
+      </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="G42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>27000101</v>
+      </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="2"/>
@@ -2310,69 +2323,31 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12">
-      <c r="B44">
-        <v>18001001</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="6">
-        <v>3</v>
-      </c>
+    <row r="44" spans="3:12">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H44" s="2">
-        <v>3</v>
-      </c>
-      <c r="I44" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45">
-        <v>18001002</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="6">
-        <v>3</v>
-      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>900</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="3:12">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="3:12">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="6"/>
@@ -2384,69 +2359,31 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" customFormat="1" spans="2:12">
-      <c r="B47">
-        <v>18001003</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="6">
-        <v>3</v>
-      </c>
+    <row r="47" spans="3:12">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H47" s="2">
-        <v>3</v>
-      </c>
-      <c r="I47" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="2:12">
-      <c r="B48">
-        <v>18001004</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="6">
-        <v>7</v>
-      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H48" s="2">
-        <v>5</v>
-      </c>
-      <c r="I48" s="2">
-        <v>4001050</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="3:12">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="3:12">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="6"/>
@@ -2458,28 +2395,28 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" customFormat="1" spans="2:12">
+    <row r="50" spans="2:12">
       <c r="B50">
-        <v>18001010</v>
+        <v>18001001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E50" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
         <v>1000</v>
       </c>
       <c r="H50" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2">
-        <v>4001004</v>
+        <v>14001007</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2">
@@ -2489,83 +2426,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:12">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="6"/>
+    <row r="51" spans="2:12">
+      <c r="B51">
+        <v>18001002</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3</v>
+      </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="G51" s="2">
+        <v>900</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>4002022</v>
+      </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" spans="2:12">
-      <c r="B52">
-        <v>18001020</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="3:12">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" customFormat="1" spans="2:12">
+      <c r="B53">
+        <v>18001003</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="6">
         <v>3</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
         <v>1000</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>14001008</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="H53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>13001006</v>
+      </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="1" spans="2:12">
       <c r="B54">
-        <v>18001030</v>
+        <v>18001004</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
         <v>1000</v>
       </c>
       <c r="H54" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I54" s="2">
-        <v>13001010</v>
+        <v>4001050</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
@@ -2575,28 +2531,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" customFormat="1" spans="3:12">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
     <row r="56" customFormat="1" spans="2:12">
       <c r="B56">
-        <v>18001040</v>
+        <v>18001010</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E56" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>1000</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I56" s="2">
-        <v>14001030</v>
+        <v>4001004</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
@@ -2606,34 +2574,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="2:12">
-      <c r="B57">
+    <row r="57" spans="3:12">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" customFormat="1" spans="2:12">
+      <c r="B58">
+        <v>18001020</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="6">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" spans="2:12">
+      <c r="B60">
+        <v>18001030</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="2:12">
+      <c r="B62">
+        <v>18001040</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="2:12">
+      <c r="B63">
         <v>18001041</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="C63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="6">
         <v>3</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
         <v>1000</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H63" s="2">
         <v>3</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I63" s="2">
         <v>14001031</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -64,6 +64,8 @@
 10 闪避普通攻击成功时
 11 闪避（销毁）投掷物成功时
 12 躲避伤害成功时
+13 死亡之后
+14 成功召唤一个召唤兽的时候
 30 召唤兽造成伤害时
 31 召唤兽收到伤害时</t>
         </r>
@@ -122,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -253,7 +255,10 @@
     <t>随机技能 反弹伤害 lv1</t>
   </si>
   <si>
-    <t>自爆人自爆被动技能 lv1</t>
+    <t>随机技能 自爆人自爆被动技能 lv1</t>
+  </si>
+  <si>
+    <t>随机技能 被动增加召唤兽攻击力 lv1</t>
   </si>
   <si>
     <t>残血爆发（被动）lv2</t>
@@ -1303,12 +1308,12 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="G10" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="H7" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2029,6 +2034,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" customFormat="1" spans="1:12">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>18801401</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>14801301</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="29" spans="3:12">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2106,10 +2145,10 @@
         <v>18100102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="6">
         <v>8</v>
@@ -2137,10 +2176,10 @@
         <v>18100103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6">
         <v>8</v>
@@ -2168,10 +2207,10 @@
         <v>18100104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6">
         <v>8</v>
@@ -2199,10 +2238,10 @@
         <v>18100105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="6">
         <v>8</v>
@@ -2242,10 +2281,10 @@
         <v>18100201</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="6">
         <v>9</v>
@@ -2285,10 +2324,10 @@
         <v>18100301</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" s="6">
         <v>11</v>
@@ -2400,10 +2439,10 @@
         <v>18001001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E50" s="6">
         <v>3</v>
@@ -2431,10 +2470,10 @@
         <v>18001002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -2474,10 +2513,10 @@
         <v>18001003</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2505,10 +2544,10 @@
         <v>18001004</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E54" s="6">
         <v>7</v>
@@ -2548,10 +2587,10 @@
         <v>18001010</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E56" s="6">
         <v>7</v>
@@ -2591,10 +2630,10 @@
         <v>18001020</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -2634,10 +2673,10 @@
         <v>18001030</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -2665,10 +2704,10 @@
         <v>18001040</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E62" s="6">
         <v>3</v>
@@ -2696,10 +2735,10 @@
         <v>18001041</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E63" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -1308,8 +1308,8 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="H7" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="I7" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="10890"/>
+    <workbookView windowWidth="14940" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>随机技能 被动增加召唤兽攻击力 lv1</t>
+  </si>
+  <si>
+    <t>道具技能 攻击叠加暴击</t>
   </si>
   <si>
     <t>残血爆发（被动）lv2</t>
@@ -1309,11 +1312,11 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="I7" activePane="bottomRight"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="G16" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2092,17 +2095,39 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
+    <row r="31" customFormat="1" spans="1:12">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>18820101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>14820101</v>
+      </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="2"/>
@@ -2145,10 +2170,10 @@
         <v>18100102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="6">
         <v>8</v>
@@ -2176,10 +2201,10 @@
         <v>18100103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="6">
         <v>8</v>
@@ -2207,10 +2232,10 @@
         <v>18100104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="6">
         <v>8</v>
@@ -2238,10 +2263,10 @@
         <v>18100105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="6">
         <v>8</v>
@@ -2281,10 +2306,10 @@
         <v>18100201</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="6">
         <v>9</v>
@@ -2324,10 +2349,10 @@
         <v>18100301</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="6">
         <v>11</v>
@@ -2439,10 +2464,10 @@
         <v>18001001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6">
         <v>3</v>
@@ -2470,10 +2495,10 @@
         <v>18001002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -2513,10 +2538,10 @@
         <v>18001003</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2544,10 +2569,10 @@
         <v>18001004</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" s="6">
         <v>7</v>
@@ -2587,10 +2612,10 @@
         <v>18001010</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E56" s="6">
         <v>7</v>
@@ -2630,10 +2655,10 @@
         <v>18001020</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -2673,10 +2698,10 @@
         <v>18001030</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -2704,10 +2729,10 @@
         <v>18001040</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62" s="6">
         <v>3</v>
@@ -2735,10 +2760,10 @@
         <v>18001041</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>道具技能 攻击叠加暴击</t>
+  </si>
+  <si>
+    <t>道具技能 被攻击反射一个攻击球</t>
   </si>
   <si>
     <t>残血爆发（被动）lv2</t>
@@ -1311,12 +1314,12 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="G16" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="G19" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2129,17 +2132,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
+    <row r="32" customFormat="1" spans="1:12">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>18820201</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3820101</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="2"/>
@@ -2170,10 +2195,10 @@
         <v>18100102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="6">
         <v>8</v>
@@ -2201,10 +2226,10 @@
         <v>18100103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="6">
         <v>8</v>
@@ -2232,10 +2257,10 @@
         <v>18100104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="6">
         <v>8</v>
@@ -2263,10 +2288,10 @@
         <v>18100105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E38" s="6">
         <v>8</v>
@@ -2306,10 +2331,10 @@
         <v>18100201</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="6">
         <v>9</v>
@@ -2349,10 +2374,10 @@
         <v>18100301</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="6">
         <v>11</v>
@@ -2464,10 +2489,10 @@
         <v>18001001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50" s="6">
         <v>3</v>
@@ -2495,10 +2520,10 @@
         <v>18001002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -2538,10 +2563,10 @@
         <v>18001003</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2569,10 +2594,10 @@
         <v>18001004</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E54" s="6">
         <v>7</v>
@@ -2612,10 +2637,10 @@
         <v>18001010</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" s="6">
         <v>7</v>
@@ -2655,10 +2680,10 @@
         <v>18001020</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -2698,10 +2723,10 @@
         <v>18001030</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -2729,10 +2754,10 @@
         <v>18001040</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62" s="6">
         <v>3</v>
@@ -2760,10 +2785,10 @@
         <v>18001041</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10890"/>
+    <workbookView windowWidth="16005" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1315,11 +1315,11 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="G19" activePane="bottomRight"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="G22" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="$A33:$XFD33"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1315,11 +1315,11 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="G22" activePane="bottomLeft"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="H1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="$A33:$XFD33"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1537,7 +1537,7 @@
         <v>1000</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>3003201</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="10890"/>
+    <workbookView windowWidth="31460" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -124,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -211,6 +198,9 @@
   </si>
   <si>
     <t>触发时候的效果资源id（自身）</t>
+  </si>
+  <si>
+    <t>隐墨 攻击加护甲</t>
   </si>
   <si>
     <t>唐依 普通击中时增加移速buff</t>
@@ -321,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -481,12 +471,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1312,17 +1302,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="H1" activePane="bottomRight"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -1470,175 +1460,171 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>18001101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14001101</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" customFormat="1" spans="1:12">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="3:12">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:12">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>18003101</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>14003101</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:12">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:12">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>18003201</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I10" s="2">
         <v>3003201</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J10" s="2">
         <v>14003201</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>18003301</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>13003101</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="1:12">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>18004101</v>
+        <v>18003301</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>1000</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>14004201</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>13003101</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
@@ -1646,39 +1632,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>18004201</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
+    <row r="12" spans="3:12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4004301</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="2"/>
@@ -1692,24 +1656,46 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
+    <row r="14" customFormat="1" spans="1:12">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>18004101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>14004201</v>
+      </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="1" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
-        <v>18005101</v>
+        <v>18004201</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -1728,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>13005101</v>
+        <v>4004301</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
@@ -1750,65 +1736,43 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" customFormat="1" spans="1:12">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>18006101</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6">
-        <v>30</v>
-      </c>
+    <row r="17" spans="3:12">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4006201</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" customFormat="1" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>18006201</v>
+        <v>18005101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
         <v>1000</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>13006101</v>
+        <v>13005101</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
@@ -1821,7 +1785,7 @@
     <row r="19" spans="3:12">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1830,47 +1794,67 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" customFormat="1" spans="1:12">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>18006101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4006201</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="1" spans="1:12">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21">
-        <v>18501101</v>
+        <v>18006201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>1000</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>13501101</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
+        <v>13006101</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2">
         <v>0</v>
       </c>
@@ -1878,41 +1862,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:12">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>18502101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
+    <row r="22" spans="3:12">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>14501101</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="2"/>
@@ -1926,24 +1886,48 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="24" customFormat="1" spans="1:12">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>18501101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="G24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>13501101</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="1" spans="1:12">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>18801101</v>
+        <v>18502101</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>41</v>
@@ -1952,7 +1936,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1962,9 +1946,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>27801101</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>14501101</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -1972,99 +1958,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:12">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>18801201</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4</v>
-      </c>
+    <row r="26" spans="3:12">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>4801201</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>18801301</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="6">
-        <v>9</v>
-      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>13801101</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="1:12">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18801401</v>
+        <v>18801101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>1000</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>14801301</v>
+        <v>27801101</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
@@ -2074,36 +2016,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
+    <row r="29" customFormat="1" spans="1:12">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>18801201</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4801201</v>
+      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>18801301</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9</v>
+      </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="G30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>13801101</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="1" spans="1:12">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>18820101</v>
+        <v>18801401</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>45</v>
@@ -2112,17 +2098,17 @@
         <v>45</v>
       </c>
       <c r="E31" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>1000</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>14820101</v>
+        <v>14801301</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
@@ -2132,39 +2118,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:12">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>18820201</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="6">
-        <v>4</v>
-      </c>
+    <row r="32" spans="3:12">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>3820101</v>
-      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="2"/>
@@ -2178,21 +2142,46 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:12">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
+    <row r="34" customFormat="1" spans="1:12">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>18820101</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3</v>
+      </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="G34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>14820101</v>
+      </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:12">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
       <c r="B35">
-        <v>18100102</v>
+        <v>18820201</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>47</v>
@@ -2201,17 +2190,17 @@
         <v>47</v>
       </c>
       <c r="E35" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
         <v>1000</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>14100101</v>
+        <v>3820101</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
@@ -2221,77 +2210,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
-      <c r="B36">
-        <v>18100103</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="6">
-        <v>8</v>
-      </c>
+    <row r="36" spans="3:12">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37">
-        <v>18100104</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="6">
-        <v>8</v>
-      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38">
-        <v>18100105</v>
+        <v>18100102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="6">
         <v>8</v>
@@ -2314,30 +2265,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
+    <row r="39" spans="2:12">
+      <c r="B39">
+        <v>18100103</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="6">
+        <v>8</v>
+      </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="G39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" customFormat="1" spans="2:12">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40">
-        <v>18100201</v>
+        <v>18100104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -2347,70 +2317,89 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>14100201</v>
+        <v>14100101</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41">
+        <v>18100105</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="6">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>14100101</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" spans="2:12">
+      <c r="B43">
+        <v>18100201</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="6">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>14100201</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>7000</v>
       </c>
-    </row>
-    <row r="41" spans="3:12">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" customFormat="1" spans="2:12">
-      <c r="B42">
-        <v>18100301</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="6">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>27000101</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="2"/>
@@ -2424,17 +2413,36 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:12">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="6"/>
+    <row r="45" customFormat="1" spans="2:12">
+      <c r="B45">
+        <v>18100301</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="6">
+        <v>11</v>
+      </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="G45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>27000101</v>
+      </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="3:12">
       <c r="C46" s="2"/>
@@ -2484,69 +2492,31 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12">
-      <c r="B50">
-        <v>18001001</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="6">
-        <v>3</v>
-      </c>
+    <row r="50" spans="3:12">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H50" s="2">
-        <v>3</v>
-      </c>
-      <c r="I50" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51">
-        <v>18001002</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="6">
-        <v>3</v>
-      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2">
-        <v>900</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="3:12">
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="3:12">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="6"/>
@@ -2558,15 +2528,15 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" customFormat="1" spans="2:12">
+    <row r="53" spans="2:12">
       <c r="B53">
-        <v>18001003</v>
+        <v>18001001</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2579,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="I53" s="2">
-        <v>13001006</v>
+        <v>14001007</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2">
@@ -2589,28 +2559,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="2:12">
+    <row r="54" spans="2:12">
       <c r="B54">
-        <v>18001004</v>
+        <v>18001002</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E54" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H54" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2">
-        <v>4001050</v>
+        <v>4002022</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
@@ -2634,26 +2604,26 @@
     </row>
     <row r="56" customFormat="1" spans="2:12">
       <c r="B56">
-        <v>18001010</v>
+        <v>18001003</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>1000</v>
       </c>
       <c r="H56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56" s="2">
-        <v>4001004</v>
+        <v>13001006</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
@@ -2663,135 +2633,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:12">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="6"/>
+    <row r="57" customFormat="1" spans="2:12">
+      <c r="B57">
+        <v>18001004</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="6">
+        <v>7</v>
+      </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2">
+        <v>4001050</v>
+      </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" customFormat="1" spans="2:12">
-      <c r="B58">
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="3:12">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" spans="2:12">
+      <c r="B59">
+        <v>18001010</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="6">
+        <v>7</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" spans="2:12">
+      <c r="B61">
         <v>18001020</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="C61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="6">
         <v>3</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="2">
         <v>1</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I61" s="2">
         <v>14001008</v>
       </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" spans="2:12">
-      <c r="B60">
-        <v>18001030</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H60" s="2">
-        <v>3</v>
-      </c>
-      <c r="I60" s="2">
-        <v>13001010</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="2:12">
-      <c r="B62">
-        <v>18001040</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="6">
-        <v>3</v>
-      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" customFormat="1" spans="2:12">
       <c r="B63">
-        <v>18001041</v>
+        <v>18001030</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
@@ -2801,13 +2783,75 @@
         <v>3</v>
       </c>
       <c r="I63" s="2">
-        <v>14001031</v>
+        <v>13001010</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
         <v>0</v>
       </c>
       <c r="L63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="2:12">
+      <c r="B65">
+        <v>18001040</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="6">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="2:12">
+      <c r="B66">
+        <v>18001041</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3</v>
+      </c>
+      <c r="I66" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2828,7 +2872,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2845,7 +2889,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>隐墨 攻击加护甲</t>
+  </si>
+  <si>
+    <t>隐墨大招 群攻</t>
   </si>
   <si>
     <t>唐依 普通击中时增加移速buff</t>
@@ -1304,11 +1307,11 @@
   <sheetPr/>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="A1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="B1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1490,14 +1493,32 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>18001201</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>13001101</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1534,10 +1555,10 @@
         <v>18003101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1568,10 +1589,10 @@
         <v>18003201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -1604,10 +1625,10 @@
         <v>18003301</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1664,10 +1685,10 @@
         <v>18004101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6">
         <v>6</v>
@@ -1698,10 +1719,10 @@
         <v>18004201</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1756,10 +1777,10 @@
         <v>18005101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
@@ -1802,10 +1823,10 @@
         <v>18006101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6">
         <v>30</v>
@@ -1836,10 +1857,10 @@
         <v>18006201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6">
         <v>5</v>
@@ -1894,10 +1915,10 @@
         <v>18501101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -1930,10 +1951,10 @@
         <v>18502101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -1990,10 +2011,10 @@
         <v>18801101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6">
         <v>12</v>
@@ -2024,10 +2045,10 @@
         <v>18801201</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="6">
         <v>4</v>
@@ -2058,10 +2079,10 @@
         <v>18801301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="6">
         <v>9</v>
@@ -2092,10 +2113,10 @@
         <v>18801401</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="6">
         <v>14</v>
@@ -2150,10 +2171,10 @@
         <v>18820101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2184,10 +2205,10 @@
         <v>18820201</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -2239,10 +2260,10 @@
         <v>18100102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="6">
         <v>8</v>
@@ -2270,10 +2291,10 @@
         <v>18100103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="6">
         <v>8</v>
@@ -2301,10 +2322,10 @@
         <v>18100104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="6">
         <v>8</v>
@@ -2332,10 +2353,10 @@
         <v>18100105</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" s="6">
         <v>8</v>
@@ -2375,10 +2396,10 @@
         <v>18100201</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="6">
         <v>9</v>
@@ -2418,10 +2439,10 @@
         <v>18100301</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" s="6">
         <v>11</v>
@@ -2533,10 +2554,10 @@
         <v>18001001</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -2564,10 +2585,10 @@
         <v>18001002</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" s="6">
         <v>3</v>
@@ -2607,10 +2628,10 @@
         <v>18001003</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
@@ -2638,10 +2659,10 @@
         <v>18001004</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" s="6">
         <v>7</v>
@@ -2681,10 +2702,10 @@
         <v>18001010</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E59" s="6">
         <v>7</v>
@@ -2724,10 +2745,10 @@
         <v>18001020</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E61" s="6">
         <v>3</v>
@@ -2767,10 +2788,10 @@
         <v>18001030</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -2798,10 +2819,10 @@
         <v>18001040</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
@@ -2829,10 +2850,10 @@
         <v>18001041</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E66" s="6">
         <v>3</v>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31460" windowHeight="18120"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -111,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -204,6 +217,9 @@
   </si>
   <si>
     <t>隐墨大招 群攻</t>
+  </si>
+  <si>
+    <t>凤紫夕 大招普通击中时增加 流血buff</t>
   </si>
   <si>
     <t>唐依 普通击中时增加移速buff</t>
@@ -314,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -474,12 +490,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1305,17 +1321,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="B1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="A1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -1535,175 +1551,175 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
+    <row r="8" customFormat="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>18002101</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14002301</v>
+      </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>18003101</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>14003101</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:12">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:12">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <v>18003201</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I13" s="2">
         <v>3003201</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J13" s="2">
         <v>14003201</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:12">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>18003301</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>13003101</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>18004101</v>
+        <v>18003301</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>1000</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>14004201</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>13003101</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -1711,39 +1727,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:12">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>18004201</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
+    <row r="15" spans="3:12">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4004301</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="2"/>
@@ -1757,24 +1751,46 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
+    <row r="17" customFormat="1" spans="1:12">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>18004101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14004201</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="1" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>18005101</v>
+        <v>18004201</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>37</v>
@@ -1793,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>13005101</v>
+        <v>4004301</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
@@ -1815,65 +1831,43 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" customFormat="1" spans="1:12">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>18006101</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
+    <row r="20" spans="3:12">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4006201</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" customFormat="1" spans="1:12">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21">
-        <v>18006201</v>
+        <v>18005101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>1000</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>13006101</v>
+        <v>13005101</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
@@ -1886,7 +1880,7 @@
     <row r="22" spans="3:12">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1895,47 +1889,67 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" customFormat="1" spans="1:12">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>18006101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6">
+        <v>30</v>
+      </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4006201</v>
+      </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="1" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>18501101</v>
+        <v>18006201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>1000</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>13501101</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
+        <v>13006101</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -1943,41 +1957,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:12">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>18502101</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
+    <row r="25" spans="3:12">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>14501101</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="2"/>
@@ -1991,24 +1981,48 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+    <row r="27" customFormat="1" spans="1:12">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>18501101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="G27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>13501101</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="1" spans="1:12">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18801101</v>
+        <v>18502101</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
@@ -2017,7 +2031,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -2027,9 +2041,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>27801101</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>14501101</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -2037,99 +2053,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:12">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>18801201</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4</v>
-      </c>
+    <row r="29" spans="3:12">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>4801201</v>
-      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>18801301</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="6">
-        <v>9</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>13801101</v>
-      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" customFormat="1" spans="1:12">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>18801401</v>
+        <v>18801101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>1000</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>14801301</v>
+        <v>27801101</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
@@ -2139,36 +2111,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
+    <row r="32" customFormat="1" spans="1:12">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>18801201</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4801201</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>18801301</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="6">
+        <v>9</v>
+      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="G33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>13801101</v>
+      </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="1" spans="1:12">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
-        <v>18820101</v>
+        <v>18801401</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
@@ -2177,17 +2193,17 @@
         <v>47</v>
       </c>
       <c r="E34" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
         <v>1000</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>14820101</v>
+        <v>14801301</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
@@ -2197,39 +2213,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:12">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>18820201</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="6">
-        <v>4</v>
-      </c>
+    <row r="35" spans="3:12">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>3820101</v>
-      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="2"/>
@@ -2243,21 +2237,46 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
+    <row r="37" customFormat="1" spans="1:12">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>18820101</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3</v>
+      </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="G37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>14820101</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:12">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
       <c r="B38">
-        <v>18100102</v>
+        <v>18820201</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
@@ -2266,17 +2285,17 @@
         <v>49</v>
       </c>
       <c r="E38" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
         <v>1000</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>14100101</v>
+        <v>3820101</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
@@ -2286,77 +2305,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
-      <c r="B39">
-        <v>18100103</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="6">
-        <v>8</v>
-      </c>
+    <row r="39" spans="3:12">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40">
-        <v>18100104</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="6">
-        <v>8</v>
-      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41">
-        <v>18100105</v>
+        <v>18100102</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6">
         <v>8</v>
@@ -2379,30 +2360,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:12">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
+    <row r="42" spans="2:12">
+      <c r="B42">
+        <v>18100103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="6">
+        <v>8</v>
+      </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="G42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>14100101</v>
+      </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" spans="2:12">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43">
-        <v>18100201</v>
+        <v>18100104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -2412,70 +2412,89 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>14100201</v>
+        <v>14100101</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44">
+        <v>18100105</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="6">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>14100101</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" spans="2:12">
+      <c r="B46">
+        <v>18100201</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="6">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>14100201</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
         <v>7000</v>
       </c>
-    </row>
-    <row r="44" spans="3:12">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" spans="2:12">
-      <c r="B45">
-        <v>18100301</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="6">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>27000101</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" s="2"/>
@@ -2489,17 +2508,36 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="3:12">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
+    <row r="48" customFormat="1" spans="2:12">
+      <c r="B48">
+        <v>18100301</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6">
+        <v>11</v>
+      </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="G48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>27000101</v>
+      </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="3:12">
       <c r="C49" s="2"/>
@@ -2549,69 +2587,31 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12">
-      <c r="B53">
-        <v>18001001</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="6">
-        <v>3</v>
-      </c>
+    <row r="53" spans="3:12">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H53" s="2">
-        <v>3</v>
-      </c>
-      <c r="I53" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54">
-        <v>18001002</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="6">
-        <v>3</v>
-      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2">
-        <v>900</v>
-      </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="3:12">
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="3:12">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="6"/>
@@ -2623,15 +2623,15 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" customFormat="1" spans="2:12">
+    <row r="56" spans="2:12">
       <c r="B56">
-        <v>18001003</v>
+        <v>18001001</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="2">
-        <v>13001006</v>
+        <v>14001007</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
@@ -2654,28 +2654,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="2:12">
+    <row r="57" spans="2:12">
       <c r="B57">
-        <v>18001004</v>
+        <v>18001002</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E57" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H57" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2">
-        <v>4001050</v>
+        <v>4002022</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
@@ -2699,26 +2699,26 @@
     </row>
     <row r="59" customFormat="1" spans="2:12">
       <c r="B59">
-        <v>18001010</v>
+        <v>18001003</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2">
         <v>1000</v>
       </c>
       <c r="H59" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I59" s="2">
-        <v>4001004</v>
+        <v>13001006</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
@@ -2728,135 +2728,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:12">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="6"/>
+    <row r="60" customFormat="1" spans="2:12">
+      <c r="B60">
+        <v>18001004</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="6">
+        <v>7</v>
+      </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5</v>
+      </c>
+      <c r="I60" s="2">
+        <v>4001050</v>
+      </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" customFormat="1" spans="2:12">
-      <c r="B61">
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="3:12">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" spans="2:12">
+      <c r="B62">
+        <v>18001010</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="6">
+        <v>7</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="2">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" spans="2:12">
+      <c r="B64">
         <v>18001020</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="6">
         <v>3</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H61" s="2">
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="2">
         <v>1</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I64" s="2">
         <v>14001008</v>
       </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" customFormat="1" spans="2:12">
-      <c r="B63">
-        <v>18001030</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H63" s="2">
-        <v>3</v>
-      </c>
-      <c r="I63" s="2">
-        <v>13001010</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="2:12">
-      <c r="B65">
-        <v>18001040</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="6">
-        <v>3</v>
-      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2">
-        <v>0</v>
-      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" customFormat="1" spans="2:12">
       <c r="B66">
-        <v>18001041</v>
+        <v>18001030</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
@@ -2866,13 +2878,75 @@
         <v>3</v>
       </c>
       <c r="I66" s="2">
-        <v>14001031</v>
+        <v>13001010</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
         <v>0</v>
       </c>
       <c r="L66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="2:12">
+      <c r="B68">
+        <v>18001040</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="2:12">
+      <c r="B69">
+        <v>18001041</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="2">
+        <v>3</v>
+      </c>
+      <c r="I69" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2893,7 +2967,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2910,7 +2984,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="17280" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,11 +90,11 @@
           </rPr>
           <t xml:space="preserve">
 根据 triggerTimeType 类型不同 参数意义也不同：
-</t>
+5：x:skillId</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -141,6 +141,9 @@
     <t>triggerTimeType</t>
   </si>
   <si>
+    <t>triggerIntListParam</t>
+  </si>
+  <si>
     <t>triggerParam</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>触发的时机类型</t>
   </si>
   <si>
+    <t>触发参数(intList)</t>
+  </si>
+  <si>
     <t>触发参数</t>
   </si>
   <si>
@@ -250,6 +256,12 @@
   </si>
   <si>
     <t xml:space="preserve">承灵 q 被动 自己造成伤害 自己周围召唤兽回血 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">林清远 q 技能伤害回血 </t>
+  </si>
+  <si>
+    <t>林清远 q 技能 残血爆发（被动）</t>
   </si>
   <si>
     <t>承灵大招召唤兽的群攻被动</t>
@@ -1321,14 +1333,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="A1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6480" ySplit="2715" topLeftCell="I13" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1336,15 +1348,15 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="11" width="28.875" customWidth="1"/>
-    <col min="12" max="12" width="21.625" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="5" max="6" width="23.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="12" width="28.875" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,102 +1396,112 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:13">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1487,29 +1509,30 @@
         <v>18001101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>14001101</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1517,41 +1540,43 @@
         <v>18001201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>13001101</v>
       </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="3:12">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="3:13">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1559,69 +1584,73 @@
         <v>18002101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>14002301</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:12">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="3:12">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="3:13">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="3:12">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:12">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:13">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1629,33 +1658,34 @@
         <v>18003101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>14003101</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:12">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1663,35 +1693,36 @@
         <v>18003201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>3003201</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>14003201</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:12">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:13">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1699,59 +1730,62 @@
         <v>18003301</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>13003101</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:12">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="3:12">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="3:13">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:12">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1759,33 +1793,34 @@
         <v>18004101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>14004201</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:12">
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1793,57 +1828,60 @@
         <v>18004201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>4004301</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12">
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="3:12">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:12">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1851,45 +1889,47 @@
         <v>18005101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>13005101</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12">
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:12">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1897,33 +1937,34 @@
         <v>18006101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="6">
         <v>30</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>4006201</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:12">
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1931,33 +1972,34 @@
         <v>18006201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>13006101</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12">
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1968,985 +2010,1100 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:13">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>18007101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2007201</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4007301</v>
+      </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:12">
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:13">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
+        <v>18007201</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>14007201</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:13">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
         <v>18501101</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="F29" s="6"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J29" s="2">
         <v>13501101</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:12">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:13">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
         <v>18502101</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="6">
         <v>3</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="F30" s="6"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <v>14501101</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:12">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:13">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
         <v>18801101</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6">
         <v>12</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="F33" s="6"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>27801101</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:12">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:13">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
         <v>18801201</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="6">
         <v>4</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="F34" s="6"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J34" s="2">
         <v>4801201</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
         <v>18801301</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="6">
         <v>9</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="F35" s="6"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
         <v>13801101</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:12">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:13">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
         <v>18801401</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="6">
         <v>14</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="F36" s="6"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J36" s="2">
         <v>14801301</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:12">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:13">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
         <v>18820101</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="6">
         <v>3</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="F39" s="6"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
         <v>14820101</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:12">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:13">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>18820201</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="6">
         <v>4</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="F40" s="6"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J40" s="2">
         <v>3820101</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41">
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43">
         <v>18100102</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="6">
-        <v>8</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42">
-        <v>18100103</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="6">
-        <v>8</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>14100101</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43">
-        <v>18100104</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E43" s="6">
         <v>8</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <v>14100101</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44">
-        <v>18100105</v>
+        <v>18100103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44" s="6">
         <v>8</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
         <v>14100101</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:12">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="2"/>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45">
+        <v>18100104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="6">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" customFormat="1" spans="2:12">
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46">
-        <v>18100201</v>
+        <v>18100105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E46" s="6">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>1000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="2">
-        <v>14100201</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>14100101</v>
+      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" spans="2:12">
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" spans="2:13">
       <c r="B48">
-        <v>18100301</v>
+        <v>18100201</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E48" s="6">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <v>1000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="2">
-        <v>27000101</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>14100201</v>
+      </c>
+      <c r="K48" s="2"/>
       <c r="L48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12">
+      <c r="M48" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="3:12">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="2:13">
+      <c r="B50">
+        <v>18100301</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="6">
+        <v>11</v>
+      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="H50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>27000101</v>
+      </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="3:12">
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="3:12">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="3:13">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="3:12">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="3:13">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="3:12">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="3:13">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="3:12">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="3:13">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56">
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58">
         <v>18001001</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="C58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="6">
         <v>3</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H56" s="2">
+      <c r="F58" s="6"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="2">
         <v>3</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J58" s="2">
         <v>14001007</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57">
+      <c r="K58" s="2"/>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59">
         <v>18001002</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="6">
-        <v>3</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
-        <v>900</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>4002022</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="3:12">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" customFormat="1" spans="2:12">
-      <c r="B59">
-        <v>18001003</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E59" s="6">
         <v>3</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2">
+        <v>900</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>4002022</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="3:13">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" spans="2:13">
+      <c r="B61">
+        <v>18001003</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="6">
         <v>3</v>
       </c>
-      <c r="I59" s="2">
+      <c r="F61" s="6"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="2">
+        <v>3</v>
+      </c>
+      <c r="J61" s="2">
         <v>13001006</v>
       </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="2:12">
-      <c r="B60">
+      <c r="K61" s="2"/>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="2:13">
+      <c r="B62">
         <v>18001004</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="6">
-        <v>7</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H60" s="2">
-        <v>5</v>
-      </c>
-      <c r="I60" s="2">
-        <v>4001050</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="3:12">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" customFormat="1" spans="2:12">
-      <c r="B62">
-        <v>18001010</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E62" s="6">
         <v>7</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <v>1000</v>
-      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="2">
         <v>5</v>
       </c>
-      <c r="I62" s="2">
-        <v>4001004</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
+      <c r="J62" s="2">
+        <v>4001050</v>
+      </c>
+      <c r="K62" s="2"/>
       <c r="L62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12">
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="3:13">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" customFormat="1" spans="2:12">
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" spans="2:13">
       <c r="B64">
-        <v>18001020</v>
+        <v>18001010</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E64" s="6">
-        <v>3</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2">
-        <v>1000</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I64" s="2">
-        <v>14001008</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="L64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:12">
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" customFormat="1" spans="2:12">
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" customFormat="1" spans="2:13">
       <c r="B66">
+        <v>18001020</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" spans="2:13">
+      <c r="B68">
         <v>18001030</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="C68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="6">
         <v>1</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H66" s="2">
+      <c r="F68" s="6"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I68" s="2">
         <v>3</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J68" s="2">
         <v>13001010</v>
       </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="2:12">
-      <c r="B68">
+      <c r="K68" s="2"/>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="2:13">
+      <c r="B70">
         <v>18001040</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="C70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="6">
         <v>3</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="F70" s="6"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I70" s="2">
         <v>1</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J70" s="2">
         <v>14001030</v>
       </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="2:12">
-      <c r="B69">
+      <c r="K70" s="2"/>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="2:13">
+      <c r="B71">
         <v>18001041</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="6">
         <v>3</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H69" s="2">
+      <c r="F71" s="6"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I71" s="2">
         <v>3</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J71" s="2">
         <v>14001031</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2">
+      <c r="K71" s="2"/>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>林清远 q 技能 残血爆发（被动）</t>
+  </si>
+  <si>
+    <t>林清远 大招 普通击中时吸血</t>
   </si>
   <si>
     <t>承灵大招召唤兽的群攻被动</t>
@@ -1333,14 +1336,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="I13" activePane="bottomLeft"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="H4" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2083,98 +2086,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+    <row r="28" customFormat="1" spans="1:13">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>18007301</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="H28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4007401</v>
+      </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:13">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>18501101</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="3:13">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>13501101</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:13">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>18502101</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6">
-        <v>3</v>
-      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:13">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>14501101</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" customFormat="1" spans="3:13">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2183,25 +2160,49 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="32" customFormat="1" spans="1:13">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>18501101</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="H32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>13501101</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="1" spans="1:13">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>18801101</v>
+        <v>18502101</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
@@ -2210,7 +2211,7 @@
         <v>48</v>
       </c>
       <c r="E33" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -2221,9 +2222,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>27801101</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>14501101</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
       <c r="L33" s="2">
         <v>0</v>
       </c>
@@ -2231,91 +2234,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:13">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>18801201</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="6">
-        <v>4</v>
-      </c>
-      <c r="F34" s="6"/>
+    <row r="34" spans="3:13">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>4801201</v>
-      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>18801301</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="6">
-        <v>9</v>
-      </c>
-      <c r="F35" s="6"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>13801101</v>
-      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" customFormat="1" spans="1:13">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36">
-        <v>18801401</v>
+        <v>18801101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2323,10 +2282,10 @@
         <v>1000</v>
       </c>
       <c r="I36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>14801301</v>
+        <v>27801101</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2">
@@ -2336,38 +2295,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:13">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
+    <row r="37" customFormat="1" spans="1:13">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>18801201</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="H37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4801201</v>
+      </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>18801301</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="6">
+        <v>9</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="H38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>13801101</v>
+      </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="1" spans="1:13">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
-        <v>18820101</v>
+        <v>18801401</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>52</v>
@@ -2376,7 +2379,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="2"/>
@@ -2384,10 +2387,10 @@
         <v>1000</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>14820101</v>
+        <v>14801301</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2">
@@ -2397,40 +2400,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:13">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>18820201</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4</v>
-      </c>
+    <row r="40" spans="3:13">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>3820101</v>
-      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13">
       <c r="C41" s="2"/>
@@ -2445,22 +2426,47 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="3:13">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
+    <row r="42" customFormat="1" spans="1:13">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>18820101</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="H42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>14820101</v>
+      </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:13">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
       <c r="B43">
-        <v>18100102</v>
+        <v>18820201</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>54</v>
@@ -2469,7 +2475,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
@@ -2477,10 +2483,10 @@
         <v>1000</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2">
-        <v>14100101</v>
+        <v>3820101</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2">
@@ -2490,79 +2496,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
-      <c r="B44">
-        <v>18100103</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="6">
-        <v>8</v>
-      </c>
+    <row r="44" spans="3:13">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45">
-        <v>18100104</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="6">
-        <v>8</v>
-      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
     </row>
     <row r="46" spans="2:13">
       <c r="B46">
-        <v>18100105</v>
+        <v>18100102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E46" s="6">
         <v>8</v>
@@ -2586,31 +2554,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:13">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="6"/>
+    <row r="47" spans="2:13">
+      <c r="B47">
+        <v>18100103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="6">
+        <v>8</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="H47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" spans="2:13">
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48">
-        <v>18100201</v>
+        <v>18100104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="2"/>
@@ -2621,73 +2608,92 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>14100201</v>
+        <v>14100101</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2">
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49">
+        <v>18100105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="6">
+        <v>8</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="H49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" spans="2:13">
-      <c r="B50">
-        <v>18100301</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="6">
-        <v>11</v>
-      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>27000101</v>
-      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="6"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" spans="2:13">
+      <c r="B51">
+        <v>18100201</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="6">
+        <v>9</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="H51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>14100201</v>
+      </c>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>7000</v>
+      </c>
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="2"/>
@@ -2702,18 +2708,37 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="3:13">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
+    <row r="53" customFormat="1" spans="2:13">
+      <c r="B53">
+        <v>18100301</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="6">
+        <v>11</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="H53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>27000101</v>
+      </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="3:13">
       <c r="C54" s="2"/>
@@ -2767,71 +2792,33 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:13">
-      <c r="B58">
-        <v>18001001</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="6">
-        <v>3</v>
-      </c>
+    <row r="58" spans="3:13">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I58" s="2">
-        <v>3</v>
-      </c>
-      <c r="J58" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59">
-        <v>18001002</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="6">
-        <v>3</v>
-      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2">
-        <v>900</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="3:13">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="3:13">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="6"/>
@@ -2844,15 +2831,15 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" customFormat="1" spans="2:13">
+    <row r="61" spans="2:13">
       <c r="B61">
-        <v>18001003</v>
+        <v>18001001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" s="6">
         <v>3</v>
@@ -2866,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="J61" s="2">
-        <v>13001006</v>
+        <v>14001007</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2">
@@ -2876,29 +2863,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="2:13">
+    <row r="62" spans="2:13">
       <c r="B62">
-        <v>18001004</v>
+        <v>18001002</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I62" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2">
-        <v>4001050</v>
+        <v>4002022</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2">
@@ -2923,16 +2910,16 @@
     </row>
     <row r="64" customFormat="1" spans="2:13">
       <c r="B64">
-        <v>18001010</v>
+        <v>18001003</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="2"/>
@@ -2940,10 +2927,10 @@
         <v>1000</v>
       </c>
       <c r="I64" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J64" s="2">
-        <v>4001004</v>
+        <v>13001006</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
@@ -2953,140 +2940,153 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:13">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="6"/>
+    <row r="65" customFormat="1" spans="2:13">
+      <c r="B65">
+        <v>18001004</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="6">
+        <v>7</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="H65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I65" s="2">
+        <v>5</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4001050</v>
+      </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" customFormat="1" spans="2:13">
-      <c r="B66">
-        <v>18001020</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="6">
-        <v>3</v>
-      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="3:13">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="2">
-        <v>14001008</v>
-      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2">
-        <v>0</v>
-      </c>
-      <c r="M66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="6"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" spans="2:13">
+      <c r="B67">
+        <v>18001010</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="6">
+        <v>7</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="H67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I67" s="2">
+        <v>5</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4001004</v>
+      </c>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" spans="2:13">
-      <c r="B68">
-        <v>18001030</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" spans="2:13">
+      <c r="B69">
+        <v>18001020</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="6">
         <v>3</v>
       </c>
-      <c r="J68" s="2">
-        <v>13001010</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="2:13">
-      <c r="B70">
-        <v>18001040</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="6">
-        <v>3</v>
-      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2">
-        <v>0</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
     </row>
     <row r="71" customFormat="1" spans="2:13">
       <c r="B71">
-        <v>18001041</v>
+        <v>18001030</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="2"/>
@@ -3097,13 +3097,77 @@
         <v>3</v>
       </c>
       <c r="J71" s="2">
-        <v>14001031</v>
+        <v>13001010</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2">
         <v>0</v>
       </c>
       <c r="M71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:13">
+      <c r="B73">
+        <v>18001040</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="2:13">
+      <c r="B74">
+        <v>18001041</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="6">
+        <v>3</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I74" s="2">
+        <v>3</v>
+      </c>
+      <c r="J74" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -1339,11 +1339,11 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="H4" activePane="bottomRight"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="H1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700"/>
+    <workbookView windowWidth="16665" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -505,12 +505,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1336,13 +1336,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="H1" activePane="bottomLeft"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="I20" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1614,31 +1614,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+    <row r="9" customFormat="1" spans="1:13">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>18002102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>14002302</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:13">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>18002103</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>14002303</v>
+      </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="2"/>
@@ -1653,56 +1697,34 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" customFormat="1" spans="1:13">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>18003101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
+    <row r="12" customFormat="1" spans="3:13">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>14003101</v>
-      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>18003201</v>
+        <v>18003101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -1710,16 +1732,14 @@
         <v>1000</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>3003201</v>
-      </c>
-      <c r="K13" s="2">
-        <v>14003201</v>
-      </c>
+        <v>14003101</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1730,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>18003301</v>
+        <v>18003201</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -1750,59 +1770,107 @@
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>13003101</v>
+        <v>3003201</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>14003201</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
+    <row r="15" customFormat="1" spans="1:13">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>18003202</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+      <c r="H15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3003202</v>
+      </c>
+      <c r="K15" s="2">
+        <v>14003202</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:13">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>18003203</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="H16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3003203</v>
+      </c>
+      <c r="K16" s="2">
+        <v>14003203</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="1" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>18004101</v>
+        <v>18003204</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -1810,14 +1878,16 @@
         <v>1000</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>14004201</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>3003204</v>
+      </c>
+      <c r="K17" s="2">
+        <v>14003204</v>
+      </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -1828,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>18004201</v>
+        <v>18003205</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -1848,17 +1918,19 @@
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>4004301</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>3003205</v>
+      </c>
+      <c r="K18" s="2">
+        <v>14003205</v>
+      </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" customFormat="1" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
@@ -1871,7 +1943,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" customFormat="1" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
@@ -1889,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>18005101</v>
+        <v>18003301</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E21" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
@@ -1909,9 +1981,11 @@
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>13005101</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>13003101</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
@@ -1932,56 +2006,34 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" customFormat="1" spans="1:13">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>18006101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="6">
-        <v>30</v>
-      </c>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>4006201</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" customFormat="1" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>18006201</v>
+        <v>18004101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
@@ -1992,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>13006101</v>
+        <v>14004201</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2">
@@ -2002,102 +2054,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="25" customFormat="1" spans="1:13">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>18004201</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="H25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4004301</v>
+      </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:13">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>18007101</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2007201</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>4007301</v>
-      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:13">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>18007201</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="6">
-        <v>8</v>
-      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>14007201</v>
-      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="1:13">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18007301</v>
+        <v>18005101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -2108,10 +2137,10 @@
         <v>1000</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>4007401</v>
+        <v>13005101</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2">
@@ -2121,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="3:13">
+    <row r="29" spans="3:13">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6"/>
@@ -2134,147 +2163,210 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" customFormat="1" spans="3:13">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
+    <row r="30" customFormat="1" spans="1:13">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>18006101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="6">
+        <v>30</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="H30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4006201</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" customFormat="1" spans="3:13">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:13">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>18006201</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="H31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>13006101</v>
+      </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:13">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>18501101</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6"/>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>13501101</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" customFormat="1" spans="1:13">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>18502101</v>
+        <v>18007101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2007201</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4007301</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:13">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>18007201</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="6">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>14007201</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:13">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>18007301</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="6">
         <v>3</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>14501101</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="3:13">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="H35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4007401</v>
+      </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="1" spans="1:13">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36">
-        <v>18801101</v>
+        <v>18007302</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2285,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>27801101</v>
+        <v>4007402</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2">
@@ -2300,16 +2392,16 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>18801201</v>
+        <v>18007303</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="2"/>
@@ -2317,10 +2409,10 @@
         <v>1000</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>4801201</v>
+        <v>4007403</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2">
@@ -2330,56 +2422,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>18801301</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="6">
-        <v>9</v>
-      </c>
+    <row r="38" customFormat="1" spans="3:13">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>13801101</v>
-      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" customFormat="1" spans="1:13">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
-        <v>18801401</v>
+        <v>18501101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E39" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="2"/>
@@ -2390,9 +2460,11 @@
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>14801301</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>13501101</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
@@ -2400,24 +2472,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:13">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
+    <row r="40" customFormat="1" spans="1:13">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>18502101</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="H40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>14501101</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:13">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2426,56 +2522,34 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" customFormat="1" spans="1:13">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>18820101</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="6">
-        <v>3</v>
-      </c>
-      <c r="F42" s="6"/>
+    <row r="42" spans="3:13">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>14820101</v>
-      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" customFormat="1" spans="1:13">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>18820201</v>
+        <v>18801101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E43" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
@@ -2483,10 +2557,10 @@
         <v>1000</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>3820101</v>
+        <v>27801101</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2">
@@ -2496,44 +2570,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="6"/>
+    <row r="44" customFormat="1" spans="1:13">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>18801201</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="6">
+        <v>4</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="H44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4801201</v>
+      </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="3:13">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="6"/>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>18801301</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>13801101</v>
+      </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="2:13">
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:13">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
       <c r="B46">
-        <v>18100102</v>
+        <v>18801401</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E46" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="2"/>
@@ -2541,10 +2662,10 @@
         <v>1000</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2">
-        <v>14100101</v>
+        <v>14801301</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2">
@@ -2554,82 +2675,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
-      <c r="B47">
-        <v>18100103</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="6">
-        <v>8</v>
-      </c>
+    <row r="47" spans="3:13">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48">
-        <v>18100104</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="6">
-        <v>8</v>
-      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:13">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
       <c r="B49">
-        <v>18100105</v>
+        <v>18820101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E49" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="2"/>
@@ -2640,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>14100101</v>
+        <v>14820101</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2">
@@ -2650,50 +2736,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:13">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="6"/>
+    <row r="50" customFormat="1" spans="1:13">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>18820201</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="H50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3820101</v>
+      </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" spans="2:13">
-      <c r="B51">
-        <v>18100201</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="6">
-        <v>9</v>
-      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>14100201</v>
-      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>7000</v>
-      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="2"/>
@@ -2708,18 +2797,18 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" customFormat="1" spans="2:13">
+    <row r="53" spans="2:13">
       <c r="B53">
-        <v>18100301</v>
+        <v>18100102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E53" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="2"/>
@@ -2730,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>27000101</v>
+        <v>14100101</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2">
@@ -2740,44 +2829,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:13">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6"/>
+    <row r="54" spans="2:13">
+      <c r="B54">
+        <v>18100103</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="H54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6"/>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55">
+        <v>18100104</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="6">
+        <v>8</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="H55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="3:13">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6"/>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56">
+        <v>18100105</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="H56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="3:13">
       <c r="C57" s="2"/>
@@ -2792,18 +2938,37 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="3:13">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="6"/>
+    <row r="58" customFormat="1" spans="2:13">
+      <c r="B58">
+        <v>18100201</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="6">
+        <v>9</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="H58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>14100201</v>
+      </c>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>7000</v>
+      </c>
     </row>
     <row r="59" spans="3:13">
       <c r="C59" s="2"/>
@@ -2818,84 +2983,65 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="3:13">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="6"/>
+    <row r="60" customFormat="1" spans="2:13">
+      <c r="B60">
+        <v>18100301</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="6">
+        <v>11</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="H60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>27000101</v>
+      </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61">
-        <v>18001001</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="6">
-        <v>3</v>
-      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I61" s="2">
-        <v>3</v>
-      </c>
-      <c r="J61" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62">
-        <v>18001002</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="6">
-        <v>3</v>
-      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2">
-        <v>900</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="3:13">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="3:13">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="6"/>
@@ -2908,71 +3054,33 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" customFormat="1" spans="2:13">
-      <c r="B64">
-        <v>18001003</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="6">
-        <v>3</v>
-      </c>
+    <row r="64" spans="3:13">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I64" s="2">
-        <v>3</v>
-      </c>
-      <c r="J64" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="2:13">
-      <c r="B65">
-        <v>18001004</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" s="6">
-        <v>7</v>
-      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I65" s="2">
-        <v>5</v>
-      </c>
-      <c r="J65" s="2">
-        <v>4001050</v>
-      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="3:13">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="3:13">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="6"/>
@@ -2985,60 +3093,60 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" customFormat="1" spans="2:13">
-      <c r="B67">
-        <v>18001010</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="6">
-        <v>7</v>
-      </c>
+    <row r="67" spans="3:13">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I67" s="2">
-        <v>5</v>
-      </c>
-      <c r="J67" s="2">
-        <v>4001004</v>
-      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="6"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68">
+        <v>18001001</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="H68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>14001007</v>
+      </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" spans="2:13">
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69">
-        <v>18001020</v>
+        <v>18001002</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E69" s="6">
         <v>3</v>
@@ -3046,13 +3154,13 @@
       <c r="F69" s="6"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I69" s="2">
         <v>1</v>
       </c>
       <c r="J69" s="2">
-        <v>14001008</v>
+        <v>4002022</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2">
@@ -3062,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:13">
+    <row r="70" customFormat="1" spans="3:13">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
@@ -3077,16 +3185,16 @@
     </row>
     <row r="71" customFormat="1" spans="2:13">
       <c r="B71">
-        <v>18001030</v>
+        <v>18001003</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E71" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="2"/>
@@ -3097,7 +3205,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="2">
-        <v>13001010</v>
+        <v>13001006</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2">
@@ -3107,50 +3215,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="2:13">
-      <c r="B73">
-        <v>18001040</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" s="6">
-        <v>3</v>
-      </c>
+    <row r="72" customFormat="1" spans="2:13">
+      <c r="B72">
+        <v>18001004</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="6">
+        <v>7</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I72" s="2">
+        <v>5</v>
+      </c>
+      <c r="J72" s="2">
+        <v>4001050</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="3:13">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I73" s="2">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2">
-        <v>14001030</v>
-      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2">
-        <v>0</v>
-      </c>
-      <c r="M73" s="2">
-        <v>0</v>
-      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
     </row>
     <row r="74" customFormat="1" spans="2:13">
       <c r="B74">
-        <v>18001041</v>
+        <v>18001010</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E74" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="2"/>
@@ -3158,16 +3279,170 @@
         <v>1000</v>
       </c>
       <c r="I74" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J74" s="2">
-        <v>14001031</v>
+        <v>4001004</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2">
         <v>0</v>
       </c>
       <c r="M74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" customFormat="1" spans="2:13">
+      <c r="B76">
+        <v>18001020</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="6">
+        <v>3</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" customFormat="1" spans="2:13">
+      <c r="B78">
+        <v>18001030</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I78" s="2">
+        <v>3</v>
+      </c>
+      <c r="J78" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="2:13">
+      <c r="B80">
+        <v>18001040</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="6">
+        <v>3</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="2:13">
+      <c r="B81">
+        <v>18001041</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="6">
+        <v>3</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I81" s="2">
+        <v>3</v>
+      </c>
+      <c r="J81" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_config/PassiveEffect.xlsx
+++ b/data_config/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="11700"/>
+    <workbookView windowWidth="16500" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>随机技能 反弹伤害 lv1</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv2</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv3</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv4</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv5</t>
   </si>
   <si>
     <t>随机技能 自爆人自爆被动技能 lv1</t>
@@ -505,12 +517,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1336,13 +1348,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6480" ySplit="2715" topLeftCell="I20" activePane="bottomLeft"/>
+      <pane xSplit="6480" ySplit="2715" topLeftCell="I26" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -2605,12 +2617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" customFormat="1" spans="1:13">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45">
-        <v>18801301</v>
+        <v>18801202</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>51</v>
@@ -2619,7 +2631,7 @@
         <v>51</v>
       </c>
       <c r="E45" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
@@ -2627,10 +2639,10 @@
         <v>1000</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
-        <v>13801101</v>
+        <v>4801202</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
@@ -2645,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>18801401</v>
+        <v>18801203</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>52</v>
@@ -2654,7 +2666,7 @@
         <v>52</v>
       </c>
       <c r="E46" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="2"/>
@@ -2665,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2">
-        <v>14801301</v>
+        <v>4801203</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2">
@@ -2675,195 +2687,204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:13">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="6"/>
+    <row r="47" customFormat="1" spans="1:13">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>18801204</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="H47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>4801204</v>
+      </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="3:13">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:13">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>18801205</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="H48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4801205</v>
+      </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:13">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>18820101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="6">
-        <v>3</v>
-      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="3:13">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>14820101</v>
-      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:13">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>18820201</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="6">
-        <v>4</v>
-      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="3:13">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>3820101</v>
-      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="6"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>18801301</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="6">
+        <v>9</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="H51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>13801101</v>
+      </c>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="3:13">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="6"/>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:13">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>18801401</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="6">
+        <v>14</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="H52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>14801301</v>
+      </c>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53">
-        <v>18100102</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="6">
-        <v>8</v>
-      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54">
-        <v>18100103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="6">
-        <v>8</v>
-      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>14100101</v>
-      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" spans="1:13">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
       <c r="B55">
-        <v>18100104</v>
+        <v>18820101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>57</v>
@@ -2872,7 +2893,7 @@
         <v>57</v>
       </c>
       <c r="E55" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="2"/>
@@ -2883,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>14100101</v>
+        <v>14820101</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2">
@@ -2893,9 +2914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" customFormat="1" spans="1:13">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
       <c r="B56">
-        <v>18100105</v>
+        <v>18820201</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>58</v>
@@ -2904,7 +2928,7 @@
         <v>58</v>
       </c>
       <c r="E56" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="2"/>
@@ -2912,10 +2936,10 @@
         <v>1000</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2">
-        <v>14100101</v>
+        <v>3820101</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2">
@@ -2938,54 +2962,54 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" customFormat="1" spans="2:13">
-      <c r="B58">
-        <v>18100201</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="6">
-        <v>9</v>
-      </c>
+    <row r="58" spans="3:13">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>14100201</v>
-      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="6"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59">
+        <v>18100102</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="6">
+        <v>8</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="H59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" spans="2:13">
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60">
-        <v>18100301</v>
+        <v>18100103</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>60</v>
@@ -2994,7 +3018,7 @@
         <v>60</v>
       </c>
       <c r="E60" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="2"/>
@@ -3005,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>27000101</v>
+        <v>14100101</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2">
@@ -3015,31 +3039,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:13">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="6"/>
+    <row r="61" spans="2:13">
+      <c r="B61">
+        <v>18100104</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="6">
+        <v>8</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="H61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="3:13">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="6"/>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62">
+        <v>18100105</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="6">
+        <v>8</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="H62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>14100101</v>
+      </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="3:13">
       <c r="C63" s="2"/>
@@ -3054,18 +3116,37 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="3:13">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="6"/>
+    <row r="64" customFormat="1" spans="2:13">
+      <c r="B64">
+        <v>18100201</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="6">
+        <v>9</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="H64" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>14100201</v>
+      </c>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>7000</v>
+      </c>
     </row>
     <row r="65" spans="3:13">
       <c r="C65" s="2"/>
@@ -3080,18 +3161,37 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="3:13">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="6"/>
+    <row r="66" customFormat="1" spans="2:13">
+      <c r="B66">
+        <v>18100301</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="6">
+        <v>11</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>27000101</v>
+      </c>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="3:13">
       <c r="C67" s="2"/>
@@ -3106,71 +3206,33 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="2:13">
-      <c r="B68">
-        <v>18001001</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="6">
-        <v>3</v>
-      </c>
+    <row r="68" spans="3:13">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I68" s="2">
-        <v>3</v>
-      </c>
-      <c r="J68" s="2">
-        <v>14001007</v>
-      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13">
-      <c r="B69">
-        <v>18001002</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="6">
-        <v>3</v>
-      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2">
-        <v>900</v>
-      </c>
-      <c r="I69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2">
-        <v>4002022</v>
-      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="3:13">
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="3:13">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
@@ -3183,71 +3245,33 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" customFormat="1" spans="2:13">
-      <c r="B71">
-        <v>18001003</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E71" s="6">
-        <v>3</v>
-      </c>
+    <row r="71" spans="3:13">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I71" s="2">
-        <v>3</v>
-      </c>
-      <c r="J71" s="2">
-        <v>13001006</v>
-      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2">
-        <v>0</v>
-      </c>
-      <c r="M71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="2:13">
-      <c r="B72">
-        <v>18001004</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="6">
-        <v>7</v>
-      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I72" s="2">
-        <v>5</v>
-      </c>
-      <c r="J72" s="2">
-        <v>4001050</v>
-      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2">
-        <v>0</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="3:13">
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="3:13">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="6"/>
@@ -3260,18 +3284,18 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" customFormat="1" spans="2:13">
+    <row r="74" spans="2:13">
       <c r="B74">
-        <v>18001010</v>
+        <v>18001001</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="2"/>
@@ -3279,10 +3303,10 @@
         <v>1000</v>
       </c>
       <c r="I74" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J74" s="2">
-        <v>4001004</v>
+        <v>14001007</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2">
@@ -3292,76 +3316,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:13">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="6"/>
+    <row r="75" spans="2:13">
+      <c r="B75">
+        <v>18001002</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="6">
+        <v>3</v>
+      </c>
       <c r="F75" s="6"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="H75" s="2">
+        <v>900</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>4002022</v>
+      </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" spans="2:13">
-      <c r="B76">
-        <v>18001020</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="6">
-        <v>3</v>
-      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="3:13">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <v>14001008</v>
-      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="6"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" customFormat="1" spans="2:13">
+      <c r="B77">
+        <v>18001003</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="6">
+        <v>3</v>
+      </c>
       <c r="F77" s="6"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="H77" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I77" s="2">
+        <v>3</v>
+      </c>
+      <c r="J77" s="2">
+        <v>13001006</v>
+      </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="1" spans="2:13">
       <c r="B78">
-        <v>18001030</v>
+        <v>18001004</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E78" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="2"/>
@@ -3369,10 +3412,10 @@
         <v>1000</v>
       </c>
       <c r="I78" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J78" s="2">
-        <v>13001010</v>
+        <v>4001050</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2">
@@ -3382,18 +3425,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" customFormat="1" spans="3:13">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
     <row r="80" customFormat="1" spans="2:13">
       <c r="B80">
-        <v>18001040</v>
+        <v>18001010</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E80" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="2"/>
@@ -3401,10 +3457,10 @@
         <v>1000</v>
       </c>
       <c r="I80" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J80" s="2">
-        <v>14001030</v>
+        <v>4001004</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2">
@@ -3414,35 +3470,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="2:13">
-      <c r="B81">
-        <v>18001041</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E81" s="6">
-        <v>3</v>
-      </c>
+    <row r="81" spans="3:13">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I81" s="2">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" customFormat="1" spans="2:13">
+      <c r="B82">
+        <v>18001020</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="6">
         <v>3</v>
       </c>
-      <c r="J81" s="2">
+      <c r="F82" s="6"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2">
+        <v>14001008</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" customFormat="1" spans="2:13">
+      <c r="B84">
+        <v>18001030</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I84" s="2">
+        <v>3</v>
+      </c>
+      <c r="J84" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="2:13">
+      <c r="B86">
+        <v>18001040</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="6">
+        <v>3</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="2:13">
+      <c r="B87">
+        <v>18001041</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="6">
+        <v>3</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I87" s="2">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2">
         <v>14001031</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2">
-        <v>0</v>
-      </c>
-      <c r="M81" s="2">
+      <c r="K87" s="2"/>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
         <v>0</v>
       </c>
     </row>
